--- a/phones.xlsx
+++ b/phones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Iphones" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Iphone 14</t>
-  </si>
-  <si>
-    <t>Iphone 14 Pro</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Samsung A22</t>
   </si>
@@ -48,13 +42,28 @@
   </si>
   <si>
     <t>One Plus 11</t>
+  </si>
+  <si>
+    <t>Iphone 14, 128Гб</t>
+  </si>
+  <si>
+    <t>Iphone 14, 256Гб</t>
+  </si>
+  <si>
+    <t>Модель</t>
+  </si>
+  <si>
+    <t>Стоимость</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +78,15 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -78,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -86,13 +104,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -387,30 +460,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="66" customWidth="1"/>
+    <col min="1" max="1" width="66" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6">
         <v>30000</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7">
         <v>40000</v>
       </c>
     </row>
@@ -435,7 +517,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <v>15000</v>
@@ -443,7 +525,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>17000</v>
@@ -470,7 +552,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>30000</v>
@@ -478,7 +560,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>35000</v>
@@ -505,7 +587,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1">
         <v>20000</v>
@@ -513,7 +595,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>23000</v>
@@ -528,9 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -539,7 +619,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>26000</v>
@@ -547,7 +627,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>28000</v>

--- a/phones.xlsx
+++ b/phones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Iphones" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="209">
   <si>
     <t>Samsung A22</t>
   </si>
@@ -44,16 +44,607 @@
     <t>One Plus 11</t>
   </si>
   <si>
-    <t>Iphone 14, 128Гб</t>
-  </si>
-  <si>
-    <t>Iphone 14, 256Гб</t>
-  </si>
-  <si>
     <t>Модель</t>
   </si>
   <si>
     <t>Стоимость</t>
+  </si>
+  <si>
+    <t>iPhone 14 Pro Max</t>
+  </si>
+  <si>
+    <t>iPhone 14 Pro</t>
+  </si>
+  <si>
+    <t>iPhone 14 Plus</t>
+  </si>
+  <si>
+    <t>iPhone 14</t>
+  </si>
+  <si>
+    <t>iPhone SE (3-го поколения)</t>
+  </si>
+  <si>
+    <t>iPhone 13 Pro Max</t>
+  </si>
+  <si>
+    <t>iPhone 13 Pro</t>
+  </si>
+  <si>
+    <t>iPhone 13</t>
+  </si>
+  <si>
+    <t>iPhone 13 mini</t>
+  </si>
+  <si>
+    <t>iPhone 12 Pro Max</t>
+  </si>
+  <si>
+    <t>iPhone 12 Pro</t>
+  </si>
+  <si>
+    <t>iPhone 12</t>
+  </si>
+  <si>
+    <t>iPhone 12 mini</t>
+  </si>
+  <si>
+    <t>iPhone SE (2-го поколения)</t>
+  </si>
+  <si>
+    <t>iPhone 11 Pro Max</t>
+  </si>
+  <si>
+    <t>iPhone 11 Pro</t>
+  </si>
+  <si>
+    <t>iPhone 11</t>
+  </si>
+  <si>
+    <t>iPhone XR</t>
+  </si>
+  <si>
+    <t>iPhone XS</t>
+  </si>
+  <si>
+    <t>iPhone XS Max</t>
+  </si>
+  <si>
+    <t>iPhone X</t>
+  </si>
+  <si>
+    <t>iPhone 8</t>
+  </si>
+  <si>
+    <t>iPhone 8 Plus</t>
+  </si>
+  <si>
+    <t>iPhone 7</t>
+  </si>
+  <si>
+    <t>iPhone 7 Plus</t>
+  </si>
+  <si>
+    <t>Samsung A03 Core</t>
+  </si>
+  <si>
+    <t>Samsung A13</t>
+  </si>
+  <si>
+    <t>Samsung A23</t>
+  </si>
+  <si>
+    <t>Samsung A53</t>
+  </si>
+  <si>
+    <t>Samsung A33</t>
+  </si>
+  <si>
+    <t>Samsung A22s</t>
+  </si>
+  <si>
+    <t>Samsung A32</t>
+  </si>
+  <si>
+    <t>Samsung A73</t>
+  </si>
+  <si>
+    <t>Samsung A14</t>
+  </si>
+  <si>
+    <t>Samsung S21</t>
+  </si>
+  <si>
+    <t>Samsung S22</t>
+  </si>
+  <si>
+    <t>Samsung S22 Ultra</t>
+  </si>
+  <si>
+    <t>Samsung S22+</t>
+  </si>
+  <si>
+    <t>Samsung S23 Ultra</t>
+  </si>
+  <si>
+    <t>Samsung S23</t>
+  </si>
+  <si>
+    <t>Samsung Z Flip 3</t>
+  </si>
+  <si>
+    <t>Samsung Z Flip 4</t>
+  </si>
+  <si>
+    <t>Samsung M14</t>
+  </si>
+  <si>
+    <t>Samsung M53</t>
+  </si>
+  <si>
+    <t>Samsung M23</t>
+  </si>
+  <si>
+    <t>Samsung M32</t>
+  </si>
+  <si>
+    <t>Samsung M12</t>
+  </si>
+  <si>
+    <t>Samsung M52</t>
+  </si>
+  <si>
+    <t>Samsung M22</t>
+  </si>
+  <si>
+    <t>Samsung S23+</t>
+  </si>
+  <si>
+    <t>Xiaomi MI 8</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 8 SE</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 8 EE</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 8 Lite</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 9</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 9 SE</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 9 Lite</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 9 Pro</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 10</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 10 Pro</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 10 Ultra</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 10 Lite</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 10 Youth</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 10i</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 11</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 11 Pro</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 11 Ultra</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 11i</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 11 Lite</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 11 Lite 5G</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 12X</t>
+  </si>
+  <si>
+    <t>Xiaomi 12</t>
+  </si>
+  <si>
+    <t>Xiaomi 12 Pro</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi Note 10 Pro</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi Note 10 Lite</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi MIX Fold</t>
+  </si>
+  <si>
+    <t>Xiaomi MIX 4</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 9T</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 9T Pro</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 10T</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 10T Pro</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 10T Lite</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 11T</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 11T Pro</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi 9</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi 9A</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi 9AT</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi 9i</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi 9С</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi 9T</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi 10</t>
+  </si>
+  <si>
+    <t>Redmi Note 9</t>
+  </si>
+  <si>
+    <t>Redmi Note 9T</t>
+  </si>
+  <si>
+    <t>Redmi Note 10</t>
+  </si>
+  <si>
+    <t>Redmi Note 10S</t>
+  </si>
+  <si>
+    <t>Redmi Note 10 5G</t>
+  </si>
+  <si>
+    <t>Redmi Note 10 Pro</t>
+  </si>
+  <si>
+    <t>Redmi Note 11</t>
+  </si>
+  <si>
+    <t>Redmi Note 11 Pro</t>
+  </si>
+  <si>
+    <t>Redmi K20</t>
+  </si>
+  <si>
+    <t>Redmi K20 Pro</t>
+  </si>
+  <si>
+    <t>Redmi K30</t>
+  </si>
+  <si>
+    <t>Redmi K30 Pro</t>
+  </si>
+  <si>
+    <t>Redmi K30 Ultra</t>
+  </si>
+  <si>
+    <t>Redmi K30S Ultra</t>
+  </si>
+  <si>
+    <t>Redmi K40</t>
+  </si>
+  <si>
+    <t>Redmi K40 Pro</t>
+  </si>
+  <si>
+    <t>Redmi K40 Pro+</t>
+  </si>
+  <si>
+    <t>Xiaomi 12S Pro</t>
+  </si>
+  <si>
+    <t>Xiaomi 12S</t>
+  </si>
+  <si>
+    <t>Xiaomi MIX Fold 2</t>
+  </si>
+  <si>
+    <t>Xiaomi 13 Pro</t>
+  </si>
+  <si>
+    <t>Xiaomi 13</t>
+  </si>
+  <si>
+    <t>Xiaomi 12T</t>
+  </si>
+  <si>
+    <t>Xiaomi 12T Pro</t>
+  </si>
+  <si>
+    <t>Xiaomi 12S Ultra</t>
+  </si>
+  <si>
+    <t>Xiaomi 12 Lite</t>
+  </si>
+  <si>
+    <t>Xiaomi 12X</t>
+  </si>
+  <si>
+    <t>Xiaomi 10S</t>
+  </si>
+  <si>
+    <t>One Plus 10T</t>
+  </si>
+  <si>
+    <t>One Plus Nord CE 2 Lite 5G</t>
+  </si>
+  <si>
+    <t>One Plus 10R</t>
+  </si>
+  <si>
+    <t>One Plus 10 Pro</t>
+  </si>
+  <si>
+    <t>One Plus 9RT</t>
+  </si>
+  <si>
+    <t>One Plus Nord CE 5G</t>
+  </si>
+  <si>
+    <t>One Plus Nord 2</t>
+  </si>
+  <si>
+    <t>One Plus 9R</t>
+  </si>
+  <si>
+    <t>One Plus 9</t>
+  </si>
+  <si>
+    <t>One Plus 9 Pro</t>
+  </si>
+  <si>
+    <t>One Plus Nord N100</t>
+  </si>
+  <si>
+    <t>One Plus Nord N10 5G</t>
+  </si>
+  <si>
+    <t>One Plus 8T</t>
+  </si>
+  <si>
+    <t>One Plus Nord</t>
+  </si>
+  <si>
+    <t>One Plus 8 Pro</t>
+  </si>
+  <si>
+    <t>One Plus 8</t>
+  </si>
+  <si>
+    <t>Huawei Honor 80 Pro Flat</t>
+  </si>
+  <si>
+    <t>Huawei Honor Magic5</t>
+  </si>
+  <si>
+    <t>Huawei Honor Magic5 Lite</t>
+  </si>
+  <si>
+    <t>Huawei Honor Magic5 Pro</t>
+  </si>
+  <si>
+    <t>Huawei Honor Magic5 Ultimate</t>
+  </si>
+  <si>
+    <t>Huawei Honor Play 30M 5G</t>
+  </si>
+  <si>
+    <t>Huawei Honor X5</t>
+  </si>
+  <si>
+    <t>Huawei Honor X7a</t>
+  </si>
+  <si>
+    <t>Huawei Honor X8a</t>
+  </si>
+  <si>
+    <t>Huawei Honor X9a"</t>
+  </si>
+  <si>
+    <t>Huawei Mate X3</t>
+  </si>
+  <si>
+    <t>Huawei nova 10 Youth</t>
+  </si>
+  <si>
+    <t>Huawei P60</t>
+  </si>
+  <si>
+    <t>Huawei P60 Art</t>
+  </si>
+  <si>
+    <t>Huawei P60 Pro</t>
+  </si>
+  <si>
+    <t>Huawei Enjoy 50</t>
+  </si>
+  <si>
+    <t>Huawei Enjoy 50 Pro</t>
+  </si>
+  <si>
+    <t>Huawei Enjoy 50z</t>
+  </si>
+  <si>
+    <t>Huawei Hi nova 9z</t>
+  </si>
+  <si>
+    <t>Huawei Honor 60 SE</t>
+  </si>
+  <si>
+    <t>Huawei Honor 70 Pro</t>
+  </si>
+  <si>
+    <t>Huawei Honor 70 Pro+</t>
+  </si>
+  <si>
+    <t>Huawei Honor 80</t>
+  </si>
+  <si>
+    <t>Huawei Honor 80 GT</t>
+  </si>
+  <si>
+    <t>Huawei Honor 80 Pro</t>
+  </si>
+  <si>
+    <t>Huawei Honor 80 SE</t>
+  </si>
+  <si>
+    <t>Huawei Honor Magic V</t>
+  </si>
+  <si>
+    <t>Huawei Honor Magic Vs</t>
+  </si>
+  <si>
+    <t>Huawei Honor Magic Vs Ultimate</t>
+  </si>
+  <si>
+    <t>Huawei Honor Magic4</t>
+  </si>
+  <si>
+    <t>Huawei Honor Magic4 Lite</t>
+  </si>
+  <si>
+    <t>Huawei Honor Magic4 Pro</t>
+  </si>
+  <si>
+    <t>Huawei Honor Magic4 Ultimate</t>
+  </si>
+  <si>
+    <t>Huawei Honor Play 30</t>
+  </si>
+  <si>
+    <t>Huawei Honor Play 40 Plus</t>
+  </si>
+  <si>
+    <t>Huawei Honor Play6C</t>
+  </si>
+  <si>
+    <t>Huawei Honor Play6T</t>
+  </si>
+  <si>
+    <t>Huawei Honor Play6T Pro</t>
+  </si>
+  <si>
+    <t>Huawei Honor X40</t>
+  </si>
+  <si>
+    <t>Huawei Honor X40 GT</t>
+  </si>
+  <si>
+    <t>Huawei Honor X40i</t>
+  </si>
+  <si>
+    <t>Huawei Honor X6</t>
+  </si>
+  <si>
+    <t>Huawei Honor X6s</t>
+  </si>
+  <si>
+    <t>Huawei Honor X7</t>
+  </si>
+  <si>
+    <t>Huawei Honor X8</t>
+  </si>
+  <si>
+    <t>Huawei Honor X8 5G</t>
+  </si>
+  <si>
+    <t>Huawei Honor X9</t>
+  </si>
+  <si>
+    <t>Huawei Honor X9 5G</t>
+  </si>
+  <si>
+    <t>Huawei Mate 40E Pro</t>
+  </si>
+  <si>
+    <t>Huawei Mate 50</t>
+  </si>
+  <si>
+    <t>Huawei Mate 50 Pro</t>
+  </si>
+  <si>
+    <t>Huawei Mate 50E</t>
+  </si>
+  <si>
+    <t>Huawei Mate Xs 2</t>
+  </si>
+  <si>
+    <t>Huawei nova 10</t>
+  </si>
+  <si>
+    <t>Huawei nova 10 Pro</t>
+  </si>
+  <si>
+    <t>Huawei nova 10 SE</t>
+  </si>
+  <si>
+    <t>Huawei nova 10z</t>
+  </si>
+  <si>
+    <t>Huawei nova 9 SE</t>
+  </si>
+  <si>
+    <t>Huawei nova 9 SE 5G</t>
+  </si>
+  <si>
+    <t>Huawei nova Y61</t>
+  </si>
+  <si>
+    <t>Huawei nova Y70 Plus</t>
+  </si>
+  <si>
+    <t>Huawei nova Y90</t>
+  </si>
+  <si>
+    <t>Huawei P50E</t>
+  </si>
+  <si>
+    <t>Huawei Pocket S</t>
   </si>
 </sst>
 </file>
@@ -63,7 +654,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,19 +664,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,19 +748,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -460,40 +1068,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="66" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="66" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B2" s="8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="B3" s="10">
         <v>40000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="10">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="10">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="10">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="10">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75">
+      <c r="A15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="10">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75">
+      <c r="A16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="10">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75">
+      <c r="A19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="10">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75">
+      <c r="A20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75">
+      <c r="A21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="10">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75">
+      <c r="A22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75">
+      <c r="A23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="10">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75">
+      <c r="A24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75">
+      <c r="A25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="10">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75">
+      <c r="A26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="8">
+        <v>25000</v>
       </c>
     </row>
   </sheetData>
@@ -504,31 +1296,240 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55" customWidth="1"/>
+    <col min="1" max="1" width="55" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="69.75" customHeight="1" thickBot="1">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2" s="12">
         <v>15000</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="12">
         <v>17000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="12">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75">
+      <c r="A15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75">
+      <c r="A16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75">
+      <c r="A19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75">
+      <c r="A20" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75">
+      <c r="A21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75">
+      <c r="A22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75">
+      <c r="A23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75">
+      <c r="A24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75">
+      <c r="A25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75">
+      <c r="A26" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75">
+      <c r="A27" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75">
+      <c r="A28" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="12">
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
@@ -539,30 +1540,607 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55" customWidth="1"/>
+    <col min="1" max="1" width="55" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="58.5" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="12">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75">
+      <c r="A15" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75">
+      <c r="A16" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75">
+      <c r="A19" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75">
+      <c r="A20" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75">
+      <c r="A21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75">
+      <c r="A22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75">
+      <c r="A23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75">
+      <c r="A24" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75">
+      <c r="A25" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75">
+      <c r="A26" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+      <c r="B26" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75">
+      <c r="A27" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75">
+      <c r="A28" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75">
+      <c r="A29" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75">
+      <c r="A30" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75">
+      <c r="A31" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75">
+      <c r="A32" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75">
+      <c r="A33" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75">
+      <c r="A34" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75">
+      <c r="A35" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75">
+      <c r="A36" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75">
+      <c r="A37" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75">
+      <c r="A38" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75">
+      <c r="A39" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75">
+      <c r="A40" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75">
+      <c r="A41" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75">
+      <c r="A42" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75">
+      <c r="A43" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75">
+      <c r="A44" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75">
+      <c r="A45" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75">
+      <c r="A46" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75">
+      <c r="A47" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75">
+      <c r="A48" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75">
+      <c r="A49" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75">
+      <c r="A50" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75">
+      <c r="A51" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75">
+      <c r="A52" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75">
+      <c r="A53" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75">
+      <c r="A54" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75">
+      <c r="A55" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75">
+      <c r="A56" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75">
+      <c r="A57" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75">
+      <c r="A58" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75">
+      <c r="A59" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75">
+      <c r="A60" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75">
+      <c r="A61" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75">
+      <c r="A62" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75">
+      <c r="A63" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75">
+      <c r="A64" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75">
+      <c r="A65" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75">
+      <c r="A66" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75">
+      <c r="A67" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75">
+      <c r="A68" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75">
+      <c r="A69" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75">
+      <c r="A70" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75">
+      <c r="A71" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75">
+      <c r="A72" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75">
+      <c r="A73" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75">
+      <c r="A74" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="12">
         <v>35000</v>
       </c>
     </row>
@@ -573,31 +2151,567 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="54.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="63.75" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1">
+      <c r="B2" s="12">
         <v>20000</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75">
+      <c r="A15" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75">
+      <c r="A16" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75">
+      <c r="A19" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75">
+      <c r="A20" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75">
+      <c r="A21" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75">
+      <c r="A22" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75">
+      <c r="A23" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75">
+      <c r="A24" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75">
+      <c r="A25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75">
+      <c r="A26" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75">
+      <c r="A27" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75">
+      <c r="A28" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75">
+      <c r="A29" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75">
+      <c r="A30" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75">
+      <c r="A31" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75">
+      <c r="A32" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75">
+      <c r="A33" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75">
+      <c r="A34" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75">
+      <c r="A35" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75">
+      <c r="A36" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75">
+      <c r="A37" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75">
+      <c r="A38" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75">
+      <c r="A39" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75">
+      <c r="A40" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75">
+      <c r="A41" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75">
+      <c r="A42" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75">
+      <c r="A43" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75">
+      <c r="A44" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75">
+      <c r="A45" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75">
+      <c r="A46" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B46" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75">
+      <c r="A47" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75">
+      <c r="A48" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75">
+      <c r="A49" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75">
+      <c r="A50" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75">
+      <c r="A51" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75">
+      <c r="A52" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75">
+      <c r="A53" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B53" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75">
+      <c r="A54" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B54" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75">
+      <c r="A55" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B55" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75">
+      <c r="A56" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75">
+      <c r="A57" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B57" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75">
+      <c r="A58" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B58" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75">
+      <c r="A59" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B59" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75">
+      <c r="A60" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75">
+      <c r="A61" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75">
+      <c r="A62" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B62" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75">
+      <c r="A63" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75">
+      <c r="A64" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75">
+      <c r="A65" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B65" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75">
+      <c r="A66" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B66" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75">
+      <c r="A67" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75">
+      <c r="A68" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75">
+      <c r="A69" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B69" s="12">
         <v>23000</v>
       </c>
     </row>
@@ -608,28 +2722,167 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="1" max="1" width="46" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="75.75" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1">
+      <c r="B2" s="12">
         <v>26000</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="12">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="12">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="12">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="12">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="12">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="12">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="12">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="12">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="12">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="12">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="12">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="12">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75">
+      <c r="A15" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="12">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75">
+      <c r="A16" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="12">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="12">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="12">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75">
+      <c r="A19" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="12">
         <v>28000</v>
       </c>
     </row>
